--- a/ebook/vocabulary/important.xlsx
+++ b/ebook/vocabulary/important.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\25750\Desktop\ebook\ebook\vocabulary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A7B70E-0C7E-46C8-ADF8-E3DB58087E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA07D5D-1A2E-41F0-A249-4465E29B3257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="877" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="877" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -27879,8 +27879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC8F6E6-F180-41F4-8D5D-5A40604FC552}">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -28692,7 +28692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D813BFA-A2EA-4233-8637-2AAEF0B5CEC4}">
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
@@ -29568,7 +29568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6B6A80-12FC-4B23-9234-2C16046C6AC0}">
   <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -31344,7 +31344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E8EFF2D-04B1-4418-A0F1-772BFD67B241}">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -32074,7 +32074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871D3740-26DE-4879-BDFE-8E8C3BE37239}">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
@@ -32810,7 +32810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA0E44B-83BE-413E-BAA7-6F8A66AA98E8}">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K66" sqref="K66"/>
     </sheetView>
   </sheetViews>
@@ -33648,7 +33648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59886AF4-B0F2-4FCE-920C-996BABEE345D}">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
@@ -34357,7 +34357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{331B1E69-626C-4284-B62A-91C4E50961ED}">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -35172,8 +35172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A138B96-C367-42FF-AA8F-904A26D38068}">
   <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:B53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F57" sqref="F1:F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -35937,8 +35937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00AC5285-E965-465C-9B54-A58E1D02C620}">
   <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
